--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-procedure.xlsx
@@ -634,7 +634,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureNotPerformedReason_VS</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -680,7 +680,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesMedical_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesMedical_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -792,7 +792,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesMedical_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesMedical_CS</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -901,19 +901,19 @@
     <t>歯科診療行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesSTEM7_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesSTEM7_CS</t>
   </si>
   <si>
     <t>dental</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesDental_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesDental_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesDental_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesDental_CS</t>
   </si>
   <si>
     <t>nurse</t>
@@ -922,10 +922,10 @@
     <t>看護行為マスタ ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesNurse_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesNurse_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesNurse_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ProcedureCodesNurse_CS</t>
   </si>
   <si>
     <t>ichi</t>
@@ -934,10 +934,10 @@
     <t>ICHI (International Classification of Health Interventions) ValueSet</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCodesICHI_VS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -1156,7 +1156,7 @@
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1264,7 +1264,7 @@
 もしプロシージャの異なる理由を説明しているのであれば、Procedure.reasonCodeとProcedure.reasonReferenceの両方を使用できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureReason_VS</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1314,7 +1314,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張extension [procedure-targetbodystructure]（extension-procedure-targetbodystructure.html）を使用する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureBodySite_VS</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1337,7 +1337,7 @@
 結果に叙述的記述トのみが含まれている場合は、CodeableConcept.textを使用してその情報を格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureOutcome_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureOutcome_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1379,7 +1379,7 @@
 合併症が叙述的なテキストによってのみ表現されている場合は、CodeableConcept.textに格納できる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCondition_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureCondition_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1417,7 +1417,7 @@
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と調整前後の関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureFollowUp_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureFollowUp_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1482,7 +1482,7 @@
     <t>Procedure中にデバイスに起こった変化の種類。【JP Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1543,7 +1543,7 @@
 実際に埋め込まれた、または取り外されたデバイスについては、Procedure.deviceを使用すること。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceKind_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ProcedureDeviceKind_VS</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1886,7 +1886,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="42.5234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
